--- a/Métriques discriminantes/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,1259 +551,3095 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.59370393909134</v>
+        <v>55.78864156774419</v>
       </c>
       <c r="C4" t="n">
-        <v>11.82138541727971</v>
+        <v>41.98867597978242</v>
       </c>
       <c r="D4" t="n">
-        <v>31.91</v>
+        <v>32.87</v>
       </c>
       <c r="E4" t="n">
-        <v>3.755411545714889</v>
+        <v>6.021916409697651</v>
       </c>
       <c r="F4" t="n">
-        <v>1.560674231538519</v>
+        <v>8.469836453984408</v>
       </c>
       <c r="G4" t="n">
-        <v>10.93623672314376</v>
+        <v>47.71581045684933</v>
       </c>
       <c r="H4" t="n">
-        <v>9.280137460734132</v>
+        <v>30.83825337786875</v>
       </c>
       <c r="I4" t="n">
-        <v>20.275863757094</v>
+        <v>61.97050100668714</v>
       </c>
       <c r="J4" t="n">
-        <v>14.9719232554186</v>
+        <v>55.65133730862008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.119363726726911</v>
+        <v>15.59370393909134</v>
       </c>
       <c r="C5" t="n">
-        <v>2.440245156461023</v>
+        <v>11.82138541727971</v>
       </c>
       <c r="D5" t="n">
-        <v>27.83</v>
+        <v>31.91</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3137315770970047</v>
+        <v>3.755411545714889</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5839863682414331</v>
+        <v>1.560674231538519</v>
       </c>
       <c r="G5" t="n">
-        <v>2.760658438636084</v>
+        <v>10.93623672314376</v>
       </c>
       <c r="H5" t="n">
-        <v>1.579572789200789</v>
+        <v>9.280137460734132</v>
       </c>
       <c r="I5" t="n">
-        <v>3.539943673163451</v>
+        <v>20.275863757094</v>
       </c>
       <c r="J5" t="n">
-        <v>3.447789514642229</v>
+        <v>14.9719232554186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.23734208725539</v>
+        <v>3.119363726726911</v>
       </c>
       <c r="C6" t="n">
-        <v>4.891342481505492</v>
+        <v>2.440245156461023</v>
       </c>
       <c r="D6" t="n">
-        <v>27.52</v>
+        <v>27.83</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5888302265288257</v>
+        <v>0.3137315770970047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8199834364070228</v>
+        <v>0.5839863682414331</v>
       </c>
       <c r="G6" t="n">
-        <v>5.551726944994943</v>
+        <v>2.760658438636084</v>
       </c>
       <c r="H6" t="n">
-        <v>3.558480335384085</v>
+        <v>1.579572789200789</v>
       </c>
       <c r="I6" t="n">
-        <v>7.034480936064599</v>
+        <v>3.539943673163451</v>
       </c>
       <c r="J6" t="n">
-        <v>6.025427094891376</v>
+        <v>3.447789514642229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.18283405800827</v>
+        <v>6.23734208725539</v>
       </c>
       <c r="C7" t="n">
-        <v>15.33418522377216</v>
+        <v>4.891342481505492</v>
       </c>
       <c r="D7" t="n">
-        <v>25.1</v>
+        <v>27.52</v>
       </c>
       <c r="E7" t="n">
-        <v>4.138524853436654</v>
+        <v>0.5888302265288257</v>
       </c>
       <c r="F7" t="n">
-        <v>1.614287591663581</v>
+        <v>0.8199834364070229</v>
       </c>
       <c r="G7" t="n">
-        <v>14.07693467630521</v>
+        <v>5.551726944994943</v>
       </c>
       <c r="H7" t="n">
-        <v>12.59960084945975</v>
+        <v>3.558480335384085</v>
       </c>
       <c r="I7" t="n">
-        <v>24.07513281277198</v>
+        <v>7.034480936064599</v>
       </c>
       <c r="J7" t="n">
-        <v>18.88279809212263</v>
+        <v>6.025427094891376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.517213987735329</v>
+        <v>19.18283405800827</v>
       </c>
       <c r="C8" t="n">
-        <v>3.618699948639625</v>
+        <v>15.33418522377216</v>
       </c>
       <c r="D8" t="n">
-        <v>24.83</v>
+        <v>25.1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7808485932111909</v>
+        <v>4.138524853436654</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5903185287938354</v>
+        <v>1.614287591663581</v>
       </c>
       <c r="G8" t="n">
-        <v>3.584143593051416</v>
+        <v>14.07693467630521</v>
       </c>
       <c r="H8" t="n">
-        <v>2.883437717229581</v>
+        <v>12.59960084945975</v>
       </c>
       <c r="I8" t="n">
-        <v>5.316936155794318</v>
+        <v>24.07513281277198</v>
       </c>
       <c r="J8" t="n">
-        <v>4.673613508246891</v>
+        <v>18.88279809212263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.16747255953418</v>
+        <v>4.517213987735329</v>
       </c>
       <c r="C9" t="n">
-        <v>13.87881218909822</v>
+        <v>3.618699948639625</v>
       </c>
       <c r="D9" t="n">
-        <v>23.7</v>
+        <v>24.83</v>
       </c>
       <c r="E9" t="n">
-        <v>1.517701061040908</v>
+        <v>0.7808485932111909</v>
       </c>
       <c r="F9" t="n">
-        <v>2.476576841867759</v>
+        <v>0.5903185287938354</v>
       </c>
       <c r="G9" t="n">
-        <v>14.8959700397898</v>
+        <v>3.584143593051416</v>
       </c>
       <c r="H9" t="n">
-        <v>10.14282693545266</v>
+        <v>2.883437717229581</v>
       </c>
       <c r="I9" t="n">
-        <v>18.96347301816437</v>
+        <v>5.316936155794318</v>
       </c>
       <c r="J9" t="n">
-        <v>17.84346896683171</v>
+        <v>4.673613508246891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.02069704030149</v>
+        <v>17.16747255953418</v>
       </c>
       <c r="C10" t="n">
-        <v>18.07146262175966</v>
+        <v>13.87881218909822</v>
       </c>
       <c r="D10" t="n">
-        <v>21.85</v>
+        <v>23.7</v>
       </c>
       <c r="E10" t="n">
-        <v>2.959353453860112</v>
+        <v>1.517701061040908</v>
       </c>
       <c r="F10" t="n">
-        <v>2.41103257172382</v>
+        <v>2.476576841867759</v>
       </c>
       <c r="G10" t="n">
-        <v>18.12583320447203</v>
+        <v>14.8959700397898</v>
       </c>
       <c r="H10" t="n">
-        <v>14.87773571360609</v>
+        <v>10.14282693545266</v>
       </c>
       <c r="I10" t="n">
-        <v>25.03099732277546</v>
+        <v>18.96347301816437</v>
       </c>
       <c r="J10" t="n">
-        <v>22.93158170297162</v>
+        <v>17.84346896683171</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.95749734015892</v>
+        <v>103.7393658710915</v>
       </c>
       <c r="C11" t="n">
-        <v>51.85531700331261</v>
+        <v>83.95634014432521</v>
       </c>
       <c r="D11" t="n">
-        <v>21.41</v>
+        <v>23.56</v>
       </c>
       <c r="E11" t="n">
-        <v>9.90107436522246</v>
+        <v>9.654721276515712</v>
       </c>
       <c r="F11" t="n">
-        <v>6.808766488514798</v>
+        <v>11.90669047980322</v>
       </c>
       <c r="G11" t="n">
-        <v>46.30127959389502</v>
+        <v>87.62523735478273</v>
       </c>
       <c r="H11" t="n">
-        <v>40.31330386984196</v>
+        <v>64.83862140338452</v>
       </c>
       <c r="I11" t="n">
-        <v>70.9460325627859</v>
+        <v>110.1845847122512</v>
       </c>
       <c r="J11" t="n">
-        <v>64.62430652348286</v>
+        <v>109.398513057571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.48970163876064</v>
+        <v>49.93283344759802</v>
       </c>
       <c r="C12" t="n">
-        <v>65.51395122176197</v>
+        <v>40.86310049076233</v>
       </c>
       <c r="D12" t="n">
-        <v>18.28</v>
+        <v>22.2</v>
       </c>
       <c r="E12" t="n">
-        <v>10.09235312976282</v>
+        <v>6.342963573756625</v>
       </c>
       <c r="F12" t="n">
-        <v>6.590704820712147</v>
+        <v>7.427628821750098</v>
       </c>
       <c r="G12" t="n">
-        <v>61.16687639398653</v>
+        <v>42.41506654901553</v>
       </c>
       <c r="H12" t="n">
-        <v>55.49314934157447</v>
+        <v>26.76262237984341</v>
       </c>
       <c r="I12" t="n">
-        <v>85.79407392181928</v>
+        <v>58.47394847372155</v>
       </c>
       <c r="J12" t="n">
-        <v>78.01004265469429</v>
+        <v>57.96006978998881</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.304038907943002</v>
+        <v>22.02069704030149</v>
       </c>
       <c r="C13" t="n">
-        <v>5.371676430377712</v>
+        <v>18.07146262175966</v>
       </c>
       <c r="D13" t="n">
-        <v>17.36</v>
+        <v>21.85</v>
       </c>
       <c r="E13" t="n">
-        <v>2.232186208931865</v>
+        <v>2.959353453860112</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8782238660888489</v>
+        <v>2.41103257172382</v>
       </c>
       <c r="G13" t="n">
-        <v>4.060414537010583</v>
+        <v>18.12583320447203</v>
       </c>
       <c r="H13" t="n">
-        <v>4.009249883432138</v>
+        <v>14.87773571360609</v>
       </c>
       <c r="I13" t="n">
-        <v>9.720047529456998</v>
+        <v>25.03099732277546</v>
       </c>
       <c r="J13" t="n">
-        <v>7.056863267887542</v>
+        <v>22.93158170297162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.06459379320886</v>
+        <v>62.95749734015892</v>
       </c>
       <c r="C14" t="n">
-        <v>61.9617726956633</v>
+        <v>51.85531700331261</v>
       </c>
       <c r="D14" t="n">
-        <v>16.3</v>
+        <v>21.41</v>
       </c>
       <c r="E14" t="n">
-        <v>9.467497115826713</v>
+        <v>9.90107436522246</v>
       </c>
       <c r="F14" t="n">
-        <v>7.162664842346862</v>
+        <v>6.808766488514798</v>
       </c>
       <c r="G14" t="n">
-        <v>56.14714920890734</v>
+        <v>46.30127959389502</v>
       </c>
       <c r="H14" t="n">
-        <v>50.36032718556174</v>
+        <v>40.31330386984196</v>
       </c>
       <c r="I14" t="n">
-        <v>79.47905387896975</v>
+        <v>70.9460325627859</v>
       </c>
       <c r="J14" t="n">
-        <v>74.83165979415998</v>
+        <v>64.62430652348286</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_forced_losses_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.09494649786234</v>
+        <v>60.96062720620417</v>
       </c>
       <c r="C15" t="n">
-        <v>40.71253207576741</v>
+        <v>75.78878569942685</v>
       </c>
       <c r="D15" t="n">
-        <v>15.68</v>
+        <v>-19.57</v>
       </c>
       <c r="E15" t="n">
-        <v>4.407307753424602</v>
+        <v>7.249039546802893</v>
       </c>
       <c r="F15" t="n">
-        <v>3.318112825051774</v>
+        <v>6.814004936129987</v>
       </c>
       <c r="G15" t="n">
-        <v>41.12535439892765</v>
+        <v>50.5879411023197</v>
       </c>
       <c r="H15" t="n">
-        <v>36.12117739920154</v>
+        <v>66.47360404514768</v>
       </c>
       <c r="I15" t="n">
-        <v>52.28133421498961</v>
+        <v>69.71248004960859</v>
       </c>
       <c r="J15" t="n">
-        <v>46.18617325593083</v>
+        <v>89.57521813596014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9188241539844462</v>
+        <v>77.48970163876064</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8045322938832</v>
+        <v>65.51395122176197</v>
       </c>
       <c r="D16" t="n">
-        <v>14.21</v>
+        <v>18.28</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3468988801362403</v>
+        <v>10.09235312976282</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1535027602425206</v>
+        <v>6.590704820712147</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5856052531994604</v>
+        <v>61.16687639398653</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5689102415298609</v>
+        <v>55.49314934157447</v>
       </c>
       <c r="I16" t="n">
-        <v>1.428700891235248</v>
+        <v>85.79407392181928</v>
       </c>
       <c r="J16" t="n">
-        <v>1.158882571568058</v>
+        <v>78.01004265469429</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.09769139157823</v>
+        <v>6.304038907943002</v>
       </c>
       <c r="C17" t="n">
-        <v>14.18245514351734</v>
+        <v>5.371676430377712</v>
       </c>
       <c r="D17" t="n">
-        <v>13.5</v>
+        <v>17.36</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9706747237072452</v>
+        <v>2.232186208931865</v>
       </c>
       <c r="F17" t="n">
-        <v>1.505618893676913</v>
+        <v>0.8782238660888489</v>
       </c>
       <c r="G17" t="n">
-        <v>15.14389571625846</v>
+        <v>4.060414537010583</v>
       </c>
       <c r="H17" t="n">
-        <v>11.15206479396653</v>
+        <v>4.009249883432138</v>
       </c>
       <c r="I17" t="n">
-        <v>17.43541861792866</v>
+        <v>9.720047529456998</v>
       </c>
       <c r="J17" t="n">
-        <v>16.70828581142854</v>
+        <v>7.056863267887542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.052562898112869</v>
+        <v>72.06459379320886</v>
       </c>
       <c r="C18" t="n">
-        <v>7.110058424214894</v>
+        <v>61.9617726956633</v>
       </c>
       <c r="D18" t="n">
-        <v>13.26</v>
+        <v>16.3</v>
       </c>
       <c r="E18" t="n">
-        <v>1.108960920762246</v>
+        <v>9.467497115826713</v>
       </c>
       <c r="F18" t="n">
-        <v>1.048141999830111</v>
+        <v>7.162664842346862</v>
       </c>
       <c r="G18" t="n">
-        <v>6.708004746024338</v>
+        <v>56.14714920890734</v>
       </c>
       <c r="H18" t="n">
-        <v>5.64815265421075</v>
+        <v>50.36032718556174</v>
       </c>
       <c r="I18" t="n">
-        <v>8.881984683447522</v>
+        <v>79.47905387896975</v>
       </c>
       <c r="J18" t="n">
-        <v>8.901036117796673</v>
+        <v>74.83165979415998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.26799782428381</v>
+        <v>561.09905060595</v>
       </c>
       <c r="C19" t="n">
-        <v>80.82849201567892</v>
+        <v>482.537504558669</v>
       </c>
       <c r="D19" t="n">
-        <v>12.92</v>
+        <v>16.28</v>
       </c>
       <c r="E19" t="n">
-        <v>9.310859332322385</v>
+        <v>62.90456518566705</v>
       </c>
       <c r="F19" t="n">
-        <v>7.164512909289892</v>
+        <v>38.93547184165638</v>
       </c>
       <c r="G19" t="n">
-        <v>76.18205305401318</v>
+        <v>469.8865537626804</v>
       </c>
       <c r="H19" t="n">
-        <v>68.56018284690543</v>
+        <v>431.0672824158443</v>
       </c>
       <c r="I19" t="n">
-        <v>98.99958341210348</v>
+        <v>640.2313160923784</v>
       </c>
       <c r="J19" t="n">
-        <v>93.73749248589787</v>
+        <v>561.0685478476699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.510414154475491</v>
+        <v>47.09494649786234</v>
       </c>
       <c r="C20" t="n">
-        <v>1.343940772109371</v>
+        <v>40.71253207576741</v>
       </c>
       <c r="D20" t="n">
-        <v>12.39</v>
+        <v>15.68</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4006016263171336</v>
+        <v>4.407307753424602</v>
       </c>
       <c r="F20" t="n">
-        <v>0.161616791534922</v>
+        <v>3.318112825051774</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8823908303144843</v>
+        <v>41.12535439892765</v>
       </c>
       <c r="H20" t="n">
-        <v>1.119983967892213</v>
+        <v>36.12117739920154</v>
       </c>
       <c r="I20" t="n">
-        <v>1.935356446213969</v>
+        <v>52.28133421498961</v>
       </c>
       <c r="J20" t="n">
-        <v>1.655012861875784</v>
+        <v>46.18617325593083</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60.35705093175095</v>
+        <v>7.111895589420707</v>
       </c>
       <c r="C21" t="n">
-        <v>53.86642443136415</v>
+        <v>6.154478980724469</v>
       </c>
       <c r="D21" t="n">
-        <v>12.05</v>
+        <v>15.56</v>
       </c>
       <c r="E21" t="n">
-        <v>8.965215007474171</v>
+        <v>1.069338870397432</v>
       </c>
       <c r="F21" t="n">
-        <v>5.426820509703838</v>
+        <v>1.475307031985367</v>
       </c>
       <c r="G21" t="n">
-        <v>49.52266359897934</v>
+        <v>5.683030685634789</v>
       </c>
       <c r="H21" t="n">
-        <v>44.26028821122707</v>
+        <v>3.287451581628265</v>
       </c>
       <c r="I21" t="n">
-        <v>69.63355394537818</v>
+        <v>8.151231151512095</v>
       </c>
       <c r="J21" t="n">
-        <v>63.21412786933215</v>
+        <v>8.740851686346723</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_high_pressures_received_per_30_min_tip</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.793108130138789</v>
+        <v>215.8177855021887</v>
       </c>
       <c r="C22" t="n">
-        <v>6.999196062567446</v>
+        <v>254.0809192090529</v>
       </c>
       <c r="D22" t="n">
-        <v>11.34</v>
+        <v>-15.06</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3866433052942251</v>
+        <v>11.04865843568715</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8213939856673086</v>
+        <v>18.03145406508954</v>
       </c>
       <c r="G22" t="n">
-        <v>7.408123614861689</v>
+        <v>200.1484299329967</v>
       </c>
       <c r="H22" t="n">
-        <v>5.347910592232108</v>
+        <v>224.9881266294553</v>
       </c>
       <c r="I22" t="n">
-        <v>8.234340299792436</v>
+        <v>228.3629084620928</v>
       </c>
       <c r="J22" t="n">
-        <v>7.996509919765154</v>
+        <v>279.3117875375855</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.447270746766746</v>
+        <v>5.165879293083973</v>
       </c>
       <c r="C23" t="n">
-        <v>8.485924066797262</v>
+        <v>6.051017172177922</v>
       </c>
       <c r="D23" t="n">
-        <v>11.33</v>
+        <v>-14.63</v>
       </c>
       <c r="E23" t="n">
-        <v>2.550079987979367</v>
+        <v>0.5501158513472842</v>
       </c>
       <c r="F23" t="n">
-        <v>1.127918647585464</v>
+        <v>1.051022646912007</v>
       </c>
       <c r="G23" t="n">
-        <v>5.234563615903987</v>
+        <v>4.231939782405467</v>
       </c>
       <c r="H23" t="n">
-        <v>6.7336751272746</v>
+        <v>4.173418524124215</v>
       </c>
       <c r="I23" t="n">
-        <v>11.80065608196892</v>
+        <v>5.583990057667663</v>
       </c>
       <c r="J23" t="n">
-        <v>10.12127729716251</v>
+        <v>7.404105128223486</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.68462784003754</v>
+        <v>0.9188241539844462</v>
       </c>
       <c r="C24" t="n">
-        <v>44.71836983343488</v>
+        <v>0.8045322938832</v>
       </c>
       <c r="D24" t="n">
-        <v>11.11</v>
+        <v>14.21</v>
       </c>
       <c r="E24" t="n">
-        <v>4.164173681930208</v>
+        <v>0.3468988801362403</v>
       </c>
       <c r="F24" t="n">
-        <v>3.593004413699257</v>
+        <v>0.1535027602425206</v>
       </c>
       <c r="G24" t="n">
-        <v>43.34970928390789</v>
+        <v>0.5856052531994604</v>
       </c>
       <c r="H24" t="n">
-        <v>39.75817072633362</v>
+        <v>0.5689102415298609</v>
       </c>
       <c r="I24" t="n">
-        <v>53.98322844439765</v>
+        <v>1.428700891235248</v>
       </c>
       <c r="J24" t="n">
-        <v>49.95944009372553</v>
+        <v>1.158882571568058</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.74969751504148</v>
+        <v>153.4057017997382</v>
       </c>
       <c r="C25" t="n">
-        <v>70.72879672055363</v>
+        <v>178.7402054484984</v>
       </c>
       <c r="D25" t="n">
-        <v>8.51</v>
+        <v>-14.17</v>
       </c>
       <c r="E25" t="n">
-        <v>9.367816787115183</v>
+        <v>8.213823703844863</v>
       </c>
       <c r="F25" t="n">
-        <v>5.309362293340059</v>
+        <v>21.16657098023376</v>
       </c>
       <c r="G25" t="n">
-        <v>65.79117613859749</v>
+        <v>143.5496342269371</v>
       </c>
       <c r="H25" t="n">
-        <v>60.09391484240266</v>
+        <v>128.6118761136237</v>
       </c>
       <c r="I25" t="n">
-        <v>86.47563371513718</v>
+        <v>162.9407747391461</v>
       </c>
       <c r="J25" t="n">
-        <v>78.67156757567868</v>
+        <v>204.2446869780767</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.41249797004445</v>
+        <v>16.09769139157823</v>
       </c>
       <c r="C26" t="n">
-        <v>7.780957729219</v>
+        <v>14.18245514351734</v>
       </c>
       <c r="D26" t="n">
-        <v>8.119999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7332303766476272</v>
+        <v>0.9706747237072452</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8829882756292982</v>
+        <v>1.505618893676913</v>
       </c>
       <c r="G26" t="n">
-        <v>7.219197042366157</v>
+        <v>15.14389571625846</v>
       </c>
       <c r="H26" t="n">
-        <v>6.66011110046747</v>
+        <v>11.15206479396653</v>
       </c>
       <c r="I26" t="n">
-        <v>9.132307093088723</v>
+        <v>17.43541861792866</v>
       </c>
       <c r="J26" t="n">
-        <v>9.690524946260044</v>
+        <v>16.70828581142854</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28.93160780075969</v>
+        <v>8.052562898112869</v>
       </c>
       <c r="C27" t="n">
-        <v>31.47025267359777</v>
+        <v>7.110058424214894</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.07</v>
+        <v>13.26</v>
       </c>
       <c r="E27" t="n">
-        <v>1.242887778910345</v>
+        <v>1.108960920762246</v>
       </c>
       <c r="F27" t="n">
-        <v>2.500671741013385</v>
+        <v>1.048141999830111</v>
       </c>
       <c r="G27" t="n">
-        <v>27.31163912968989</v>
+        <v>6.708004746024337</v>
       </c>
       <c r="H27" t="n">
-        <v>27.72194873773205</v>
+        <v>5.64815265421075</v>
       </c>
       <c r="I27" t="n">
-        <v>30.52628880454227</v>
+        <v>8.881984683447522</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92875050943569</v>
+        <v>8.901036117796673</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_ball_retentions_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.592974567973747</v>
+        <v>154.8550984800956</v>
       </c>
       <c r="C28" t="n">
-        <v>1.507612589697516</v>
+        <v>178.2917635782367</v>
       </c>
       <c r="D28" t="n">
-        <v>5.66</v>
+        <v>-13.15</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5678847920772089</v>
+        <v>5.618269611619322</v>
       </c>
       <c r="F28" t="n">
-        <v>0.219587026276694</v>
+        <v>14.70426203036726</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9242797126435862</v>
+        <v>149.5580209548917</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9893092848932264</v>
+        <v>155.863326198122</v>
       </c>
       <c r="I28" t="n">
-        <v>2.399180835380752</v>
+        <v>163.650089269964</v>
       </c>
       <c r="J28" t="n">
-        <v>1.841034093971801</v>
+        <v>201.2917180037583</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30.85772974566634</v>
+        <v>91.26799782428381</v>
       </c>
       <c r="C29" t="n">
-        <v>29.4595087807024</v>
+        <v>80.82849201567892</v>
       </c>
       <c r="D29" t="n">
-        <v>4.75</v>
+        <v>12.92</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7699745591280354</v>
+        <v>9.310859332322391</v>
       </c>
       <c r="F29" t="n">
-        <v>2.570343941899464</v>
+        <v>7.164512909289892</v>
       </c>
       <c r="G29" t="n">
-        <v>29.92125870049438</v>
+        <v>76.18205305401317</v>
       </c>
       <c r="H29" t="n">
-        <v>24.80964694110689</v>
+        <v>68.56018284690543</v>
       </c>
       <c r="I29" t="n">
-        <v>31.84960950287157</v>
+        <v>98.99958341210348</v>
       </c>
       <c r="J29" t="n">
-        <v>34.88394688000852</v>
+        <v>93.73749248589787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.864738940870629</v>
+        <v>7.117439085510587</v>
       </c>
       <c r="C30" t="n">
-        <v>2.744147165923916</v>
+        <v>8.1503955970351</v>
       </c>
       <c r="D30" t="n">
-        <v>4.39</v>
+        <v>-12.67</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6737639560750722</v>
+        <v>0.4672624169544445</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2424508435279613</v>
+        <v>0.8773698525895449</v>
       </c>
       <c r="G30" t="n">
-        <v>2.029669268458242</v>
+        <v>6.640160573129833</v>
       </c>
       <c r="H30" t="n">
-        <v>2.376611449552886</v>
+        <v>5.821388473482457</v>
       </c>
       <c r="I30" t="n">
-        <v>3.78164516776528</v>
+        <v>7.764626894842726</v>
       </c>
       <c r="J30" t="n">
-        <v>3.16517434217535</v>
+        <v>9.115278280102222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.93879654468842</v>
+        <v>1.510414154475491</v>
       </c>
       <c r="C31" t="n">
-        <v>28.79810380410865</v>
+        <v>1.343940772109371</v>
       </c>
       <c r="D31" t="n">
-        <v>3.96</v>
+        <v>12.39</v>
       </c>
       <c r="E31" t="n">
-        <v>1.239633333170107</v>
+        <v>0.4006016263171336</v>
       </c>
       <c r="F31" t="n">
-        <v>2.900046251999812</v>
+        <v>0.161616791534922</v>
       </c>
       <c r="G31" t="n">
-        <v>28.30862929376817</v>
+        <v>0.8823908303144843</v>
       </c>
       <c r="H31" t="n">
-        <v>23.44584627044557</v>
+        <v>1.119983967892213</v>
       </c>
       <c r="I31" t="n">
-        <v>31.24002819566737</v>
+        <v>1.935356446213969</v>
       </c>
       <c r="J31" t="n">
-        <v>36.42220136471755</v>
+        <v>1.655012861875784</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.18384528706732</v>
+        <v>99.32208044753233</v>
       </c>
       <c r="C32" t="n">
-        <v>16.53331225786203</v>
+        <v>88.51097290658689</v>
       </c>
       <c r="D32" t="n">
-        <v>3.93</v>
+        <v>12.21</v>
       </c>
       <c r="E32" t="n">
-        <v>1.29920014019507</v>
+        <v>11.75223774445465</v>
       </c>
       <c r="F32" t="n">
-        <v>1.778849553425658</v>
+        <v>10.28106176265814</v>
       </c>
       <c r="G32" t="n">
-        <v>14.93615805318249</v>
+        <v>85.21943919070375</v>
       </c>
       <c r="H32" t="n">
-        <v>14.14998484865068</v>
+        <v>75.77673016875659</v>
       </c>
       <c r="I32" t="n">
-        <v>18.15556096481395</v>
+        <v>115.1054339897801</v>
       </c>
       <c r="J32" t="n">
-        <v>19.99448611576302</v>
+        <v>106.3011498145813</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>69.66935768888001</v>
+        <v>60.35705093175095</v>
       </c>
       <c r="C33" t="n">
-        <v>67.73392893121103</v>
+        <v>53.86642443136415</v>
       </c>
       <c r="D33" t="n">
-        <v>2.86</v>
+        <v>12.05</v>
       </c>
       <c r="E33" t="n">
-        <v>2.934519797650937</v>
+        <v>8.965215007474171</v>
       </c>
       <c r="F33" t="n">
-        <v>4.552367019934056</v>
+        <v>5.426820509703838</v>
       </c>
       <c r="G33" t="n">
-        <v>65.67357260336011</v>
+        <v>49.52266359897934</v>
       </c>
       <c r="H33" t="n">
-        <v>63.00980639560355</v>
+        <v>44.26028821122707</v>
       </c>
       <c r="I33" t="n">
-        <v>71.88005486171394</v>
+        <v>69.63355394537818</v>
       </c>
       <c r="J33" t="n">
-        <v>81.19524844424498</v>
+        <v>63.21412786933215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_completed_passes_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.47776935274435</v>
+        <v>22.79829606978434</v>
       </c>
       <c r="C34" t="n">
-        <v>67.5963085067548</v>
+        <v>20.37980200851191</v>
       </c>
       <c r="D34" t="n">
-        <v>2.78</v>
+        <v>11.87</v>
       </c>
       <c r="E34" t="n">
-        <v>3.032250705847586</v>
+        <v>2.846020458586938</v>
       </c>
       <c r="F34" t="n">
-        <v>4.321747003362872</v>
+        <v>2.280858215918462</v>
       </c>
       <c r="G34" t="n">
-        <v>65.56629687315132</v>
+        <v>20.13823786555774</v>
       </c>
       <c r="H34" t="n">
-        <v>60.95868848932685</v>
+        <v>17.35286579890066</v>
       </c>
       <c r="I34" t="n">
-        <v>72.30759175283009</v>
+        <v>27.47876629208307</v>
       </c>
       <c r="J34" t="n">
-        <v>79.05031600778267</v>
+        <v>24.50964148497716</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.95505528514039</v>
+        <v>7.793108130138788</v>
       </c>
       <c r="C35" t="n">
-        <v>79.74825189438425</v>
+        <v>6.999196062567446</v>
       </c>
       <c r="D35" t="n">
-        <v>2.77</v>
+        <v>11.34</v>
       </c>
       <c r="E35" t="n">
-        <v>9.717764028819309</v>
+        <v>0.3866433052942257</v>
       </c>
       <c r="F35" t="n">
-        <v>6.831890706865283</v>
+        <v>0.8213939856673087</v>
       </c>
       <c r="G35" t="n">
-        <v>68.86402315788136</v>
+        <v>7.408123614861688</v>
       </c>
       <c r="H35" t="n">
-        <v>67.07494165843585</v>
+        <v>5.347910592232108</v>
       </c>
       <c r="I35" t="n">
-        <v>92.29896160065991</v>
+        <v>8.234340299792436</v>
       </c>
       <c r="J35" t="n">
-        <v>90.42307594967787</v>
+        <v>7.996509919765154</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.20628616464134</v>
+        <v>9.447270746766746</v>
       </c>
       <c r="C36" t="n">
-        <v>67.60655125416311</v>
+        <v>8.485924066797262</v>
       </c>
       <c r="D36" t="n">
-        <v>2.37</v>
+        <v>11.33</v>
       </c>
       <c r="E36" t="n">
-        <v>4.229406095569144</v>
+        <v>2.550079987979367</v>
       </c>
       <c r="F36" t="n">
-        <v>4.661907290727581</v>
+        <v>1.127918647585464</v>
       </c>
       <c r="G36" t="n">
-        <v>63.3409090916464</v>
+        <v>5.234563615903987</v>
       </c>
       <c r="H36" t="n">
-        <v>61.53785168625087</v>
+        <v>6.7336751272746</v>
       </c>
       <c r="I36" t="n">
-        <v>72.28136389808543</v>
+        <v>11.80065608196892</v>
       </c>
       <c r="J36" t="n">
-        <v>80.44985770118041</v>
+        <v>10.12127729716251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>ball_retention_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.65907943329671</v>
+        <v>49.68462784003754</v>
       </c>
       <c r="C37" t="n">
-        <v>66.11674861891917</v>
+        <v>44.71836983343488</v>
       </c>
       <c r="D37" t="n">
-        <v>2.33</v>
+        <v>11.11</v>
       </c>
       <c r="E37" t="n">
-        <v>1.950597986769082</v>
+        <v>4.164173681930208</v>
       </c>
       <c r="F37" t="n">
-        <v>4.123782961749064</v>
+        <v>3.593004413699257</v>
       </c>
       <c r="G37" t="n">
-        <v>65.30251144221495</v>
+        <v>43.34970928390789</v>
       </c>
       <c r="H37" t="n">
-        <v>60.42032283361985</v>
+        <v>39.75817072633362</v>
       </c>
       <c r="I37" t="n">
-        <v>69.9864686633582</v>
+        <v>53.98322844439765</v>
       </c>
       <c r="J37" t="n">
-        <v>77.28438484741231</v>
+        <v>49.95944009372553</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>count_pass_attempts_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.589130118916932</v>
+        <v>680.3816702700962</v>
       </c>
       <c r="C38" t="n">
-        <v>3.512799806492452</v>
+        <v>613.7672328252969</v>
       </c>
       <c r="D38" t="n">
-        <v>2.17</v>
+        <v>10.85</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4514728515963732</v>
+        <v>65.69400063859514</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3302341399653596</v>
+        <v>41.45705810511427</v>
       </c>
       <c r="G38" t="n">
-        <v>3.140697953161452</v>
+        <v>580.3944840769161</v>
       </c>
       <c r="H38" t="n">
-        <v>2.807465580446539</v>
+        <v>557.3535174825035</v>
       </c>
       <c r="I38" t="n">
-        <v>4.268021780432877</v>
+        <v>758.0035199515498</v>
       </c>
       <c r="J38" t="n">
-        <v>4.008119246520345</v>
+        <v>716.4030302818071</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.20340403107496</v>
+        <v>3.233579142858003</v>
       </c>
       <c r="C39" t="n">
-        <v>18.86671932001562</v>
+        <v>3.626068846081068</v>
       </c>
       <c r="D39" t="n">
-        <v>1.78</v>
+        <v>-10.82</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9211604810776979</v>
+        <v>0.4577160470155729</v>
       </c>
       <c r="F39" t="n">
-        <v>1.088830641488571</v>
+        <v>0.725786289733057</v>
       </c>
       <c r="G39" t="n">
-        <v>17.99808077023203</v>
+        <v>2.535469653122496</v>
       </c>
       <c r="H39" t="n">
-        <v>16.78804206887002</v>
+        <v>2.731625991218646</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03490384510583</v>
+        <v>3.669810571593882</v>
       </c>
       <c r="J39" t="n">
-        <v>20.39980137870329</v>
+        <v>5.227422485645803</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>119.7096388897252</v>
+      </c>
+      <c r="C40" t="n">
+        <v>133.8033226193006</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-10.53</v>
+      </c>
+      <c r="E40" t="n">
+        <v>24.00085049514906</v>
+      </c>
+      <c r="F40" t="n">
+        <v>17.97233056139353</v>
+      </c>
+      <c r="G40" t="n">
+        <v>80.61053859512246</v>
+      </c>
+      <c r="H40" t="n">
+        <v>106.1718096752682</v>
+      </c>
+      <c r="I40" t="n">
+        <v>143.4392339323295</v>
+      </c>
+      <c r="J40" t="n">
+        <v>168.7970941659917</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>13.33642467383661</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12.11214567061082</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.598518812060948</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.79669750767302</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11.54397541119464</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9.438935239153539</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.97020622902457</v>
+      </c>
+      <c r="J41" t="n">
+        <v>15.59612188484524</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>643.2116756544413</v>
+      </c>
+      <c r="C42" t="n">
+        <v>584.656985649243</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E42" t="n">
+        <v>59.99468465381348</v>
+      </c>
+      <c r="F42" t="n">
+        <v>43.85849672392197</v>
+      </c>
+      <c r="G42" t="n">
+        <v>543.1092873016329</v>
+      </c>
+      <c r="H42" t="n">
+        <v>518.5335051790047</v>
+      </c>
+      <c r="I42" t="n">
+        <v>698.5235238897718</v>
+      </c>
+      <c r="J42" t="n">
+        <v>657.5098983750484</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>33.33089306357254</v>
+      </c>
+      <c r="C43" t="n">
+        <v>36.83699661478686</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-9.52</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.135956381969007</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5.251082644351984</v>
+      </c>
+      <c r="G43" t="n">
+        <v>26.43612210162556</v>
+      </c>
+      <c r="H43" t="n">
+        <v>29.85203345388786</v>
+      </c>
+      <c r="I43" t="n">
+        <v>39.74525188675608</v>
+      </c>
+      <c r="J43" t="n">
+        <v>47.91845533005652</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>645.533525725403</v>
+      </c>
+      <c r="C44" t="n">
+        <v>590.0395996916844</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E44" t="n">
+        <v>45.98158395357027</v>
+      </c>
+      <c r="F44" t="n">
+        <v>36.93386968166203</v>
+      </c>
+      <c r="G44" t="n">
+        <v>576.809696099649</v>
+      </c>
+      <c r="H44" t="n">
+        <v>526.8375058599772</v>
+      </c>
+      <c r="I44" t="n">
+        <v>682.437299105267</v>
+      </c>
+      <c r="J44" t="n">
+        <v>654.4067344079209</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2.598880282536359</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.857164995903886</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-9.039999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7005725134450729</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5436701371198586</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.508733547085621</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.956585433001356</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.296226825969139</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.545647238194424</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>86.35088840088704</v>
+      </c>
+      <c r="C46" t="n">
+        <v>79.48678752269956</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8.437385753518319</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12.23084873649853</v>
+      </c>
+      <c r="G46" t="n">
+        <v>76.86671604450919</v>
+      </c>
+      <c r="H46" t="n">
+        <v>58.14273247574194</v>
+      </c>
+      <c r="I46" t="n">
+        <v>98.54621547603739</v>
+      </c>
+      <c r="J46" t="n">
+        <v>106.2354147839028</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>67.73022789687165</v>
+      </c>
+      <c r="C47" t="n">
+        <v>74.09508125458729</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-8.59</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17.51887246026152</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.27587495316675</v>
+      </c>
+      <c r="G47" t="n">
+        <v>48.69150222838883</v>
+      </c>
+      <c r="H47" t="n">
+        <v>42.53518921805196</v>
+      </c>
+      <c r="I47" t="n">
+        <v>89.91272997346815</v>
+      </c>
+      <c r="J47" t="n">
+        <v>93.26545523818464</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>76.74969751504148</v>
+      </c>
+      <c r="C48" t="n">
+        <v>70.72879672055363</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.367816787115185</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.309362293340059</v>
+      </c>
+      <c r="G48" t="n">
+        <v>65.79117613859749</v>
+      </c>
+      <c r="H48" t="n">
+        <v>60.09391484240266</v>
+      </c>
+      <c r="I48" t="n">
+        <v>86.47563371513718</v>
+      </c>
+      <c r="J48" t="n">
+        <v>78.67156757567868</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>142.3396709233897</v>
+      </c>
+      <c r="C49" t="n">
+        <v>155.2094813042887</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.003052361726025</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11.01874855000135</v>
+      </c>
+      <c r="G49" t="n">
+        <v>137.387081193316</v>
+      </c>
+      <c r="H49" t="n">
+        <v>134.0912952868632</v>
+      </c>
+      <c r="I49" t="n">
+        <v>145.3301233060463</v>
+      </c>
+      <c r="J49" t="n">
+        <v>174.5982083862222</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10.03721879702218</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.282793940653958</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.022921657049784</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.774165329723203</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.259327736424924</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6.784956850444662</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13.51935269652481</v>
+      </c>
+      <c r="J50" t="n">
+        <v>12.4703705540208</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8.41249797004445</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7.780957729219</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.733230376647627</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8829882756292982</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7.219197042366157</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6.66011110046747</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.132307093088723</v>
+      </c>
+      <c r="J51" t="n">
+        <v>9.690524946260044</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>38.76978818780783</v>
+      </c>
+      <c r="C52" t="n">
+        <v>42.18785581668546</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.98841070934255</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4.104952326813888</v>
+      </c>
+      <c r="G52" t="n">
+        <v>34.13855303265326</v>
+      </c>
+      <c r="H52" t="n">
+        <v>35.79691402801978</v>
+      </c>
+      <c r="I52" t="n">
+        <v>49.20125856864675</v>
+      </c>
+      <c r="J52" t="n">
+        <v>46.96448772938271</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>28.93160780075969</v>
+      </c>
+      <c r="C53" t="n">
+        <v>31.47025267359777</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-8.07</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.242887778910345</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.500671741013385</v>
+      </c>
+      <c r="G53" t="n">
+        <v>27.31163912968989</v>
+      </c>
+      <c r="H53" t="n">
+        <v>27.72194873773205</v>
+      </c>
+      <c r="I53" t="n">
+        <v>30.52628880454227</v>
+      </c>
+      <c r="J53" t="n">
+        <v>35.92875050943569</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>337.6801189739342</v>
+      </c>
+      <c r="C54" t="n">
+        <v>367.1324370555198</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-8.02</v>
+      </c>
+      <c r="E54" t="n">
+        <v>28.33918124014589</v>
+      </c>
+      <c r="F54" t="n">
+        <v>24.08879847480657</v>
+      </c>
+      <c r="G54" t="n">
+        <v>300.1546711679685</v>
+      </c>
+      <c r="H54" t="n">
+        <v>317.6534073637604</v>
+      </c>
+      <c r="I54" t="n">
+        <v>366.588567664299</v>
+      </c>
+      <c r="J54" t="n">
+        <v>413.3112323618166</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>277.8986998390445</v>
+      </c>
+      <c r="C55" t="n">
+        <v>299.7451047982401</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-7.29</v>
+      </c>
+      <c r="E55" t="n">
+        <v>32.83990428261304</v>
+      </c>
+      <c r="F55" t="n">
+        <v>29.9004215821002</v>
+      </c>
+      <c r="G55" t="n">
+        <v>250.1604200854595</v>
+      </c>
+      <c r="H55" t="n">
+        <v>252.5437911691774</v>
+      </c>
+      <c r="I55" t="n">
+        <v>332.8787968991042</v>
+      </c>
+      <c r="J55" t="n">
+        <v>341.3472827918925</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>28.13791616461368</v>
+      </c>
+      <c r="C56" t="n">
+        <v>26.32778299520219</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.781811271387538</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.319867463780002</v>
+      </c>
+      <c r="G56" t="n">
+        <v>25.98894841596472</v>
+      </c>
+      <c r="H56" t="n">
+        <v>23.36330406009446</v>
+      </c>
+      <c r="I56" t="n">
+        <v>32.90375862043897</v>
+      </c>
+      <c r="J56" t="n">
+        <v>31.98522455972592</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>15.80510479922036</v>
+      </c>
+      <c r="C57" t="n">
+        <v>16.90710847390597</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-6.52</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.361439379671141</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.619688091187017</v>
+      </c>
+      <c r="G57" t="n">
+        <v>12.52217269759099</v>
+      </c>
+      <c r="H57" t="n">
+        <v>13.96320410038235</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18.55544406935381</v>
+      </c>
+      <c r="J57" t="n">
+        <v>22.33987112317094</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>26.53364206663281</v>
+      </c>
+      <c r="C58" t="n">
+        <v>24.95620321153129</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.483429041361476</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.463873647140629</v>
+      </c>
+      <c r="G58" t="n">
+        <v>23.61014546647229</v>
+      </c>
+      <c r="H58" t="n">
+        <v>21.31430267096867</v>
+      </c>
+      <c r="I58" t="n">
+        <v>30.3567851922695</v>
+      </c>
+      <c r="J58" t="n">
+        <v>29.42025692884953</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>834.7627770523138</v>
+      </c>
+      <c r="C59" t="n">
+        <v>788.3947375370475</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E59" t="n">
+        <v>34.84894471641515</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28.13070956896366</v>
+      </c>
+      <c r="G59" t="n">
+        <v>781.4111954324192</v>
+      </c>
+      <c r="H59" t="n">
+        <v>732.9234210484688</v>
+      </c>
+      <c r="I59" t="n">
+        <v>867.9495576681575</v>
+      </c>
+      <c r="J59" t="n">
+        <v>831.7964120421763</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.592974567973747</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.507612589697516</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.5678847920772089</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.219587026276694</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9242797126435862</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9893092848932264</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.399180835380752</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.841034093971801</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>200.5963563156512</v>
+      </c>
+      <c r="C61" t="n">
+        <v>190.0722813880893</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E61" t="n">
+        <v>24.78784318765599</v>
+      </c>
+      <c r="F61" t="n">
+        <v>21.01862993109454</v>
+      </c>
+      <c r="G61" t="n">
+        <v>178.552177152774</v>
+      </c>
+      <c r="H61" t="n">
+        <v>159.992031304832</v>
+      </c>
+      <c r="I61" t="n">
+        <v>238.5886709936156</v>
+      </c>
+      <c r="J61" t="n">
+        <v>227.0360900171169</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>762.5904855664609</v>
+      </c>
+      <c r="C62" t="n">
+        <v>723.876622978523</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E62" t="n">
+        <v>70.75216508689574</v>
+      </c>
+      <c r="F62" t="n">
+        <v>44.66600654771971</v>
+      </c>
+      <c r="G62" t="n">
+        <v>657.9521520693727</v>
+      </c>
+      <c r="H62" t="n">
+        <v>644.742304080149</v>
+      </c>
+      <c r="I62" t="n">
+        <v>830.482616329447</v>
+      </c>
+      <c r="J62" t="n">
+        <v>819.6295710648691</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>109.9016611970846</v>
+      </c>
+      <c r="C63" t="n">
+        <v>116.0867574942237</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.094229133735019</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10.18451837705068</v>
+      </c>
+      <c r="G63" t="n">
+        <v>105.8961145959795</v>
+      </c>
+      <c r="H63" t="n">
+        <v>97.49801879612748</v>
+      </c>
+      <c r="I63" t="n">
+        <v>114.5496280667581</v>
+      </c>
+      <c r="J63" t="n">
+        <v>134.7437023073807</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2.011232922460342</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.91767870524186</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5903947731630812</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.4391405569068404</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.09731241373493</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.200586514807158</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.587658221187378</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.886144226618167</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>30.85772974566634</v>
+      </c>
+      <c r="C65" t="n">
+        <v>29.4595087807024</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7699745591280354</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.570343941899464</v>
+      </c>
+      <c r="G65" t="n">
+        <v>29.92125870049438</v>
+      </c>
+      <c r="H65" t="n">
+        <v>24.80964694110689</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31.84960950287157</v>
+      </c>
+      <c r="J65" t="n">
+        <v>34.88394688000852</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2.864738940870629</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.744147165923916</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6737639560750722</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.2424508435279613</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.029669268458242</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.376611449552886</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.78164516776528</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.16517434217535</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>17.35177383036505</v>
+      </c>
+      <c r="C67" t="n">
+        <v>18.14543599730242</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.523199697588084</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.907647475639638</v>
+      </c>
+      <c r="G67" t="n">
+        <v>14.88286146861746</v>
+      </c>
+      <c r="H67" t="n">
+        <v>14.08387065760526</v>
+      </c>
+      <c r="I67" t="n">
+        <v>21.05282522013251</v>
+      </c>
+      <c r="J67" t="n">
+        <v>22.50500814052942</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>count_low_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>796.6173774541794</v>
+      </c>
+      <c r="C68" t="n">
+        <v>763.3971910977415</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E68" t="n">
+        <v>57.57402259599262</v>
+      </c>
+      <c r="F68" t="n">
+        <v>40.56523650781994</v>
+      </c>
+      <c r="G68" t="n">
+        <v>698.7262973626854</v>
+      </c>
+      <c r="H68" t="n">
+        <v>708.0553293848842</v>
+      </c>
+      <c r="I68" t="n">
+        <v>844.8549829584076</v>
+      </c>
+      <c r="J68" t="n">
+        <v>851.3656137238441</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>29.93879654468842</v>
+      </c>
+      <c r="C69" t="n">
+        <v>28.79810380410865</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.239633333170107</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.900046251999812</v>
+      </c>
+      <c r="G69" t="n">
+        <v>28.30862929376817</v>
+      </c>
+      <c r="H69" t="n">
+        <v>23.44584627044557</v>
+      </c>
+      <c r="I69" t="n">
+        <v>31.24002819566737</v>
+      </c>
+      <c r="J69" t="n">
+        <v>36.42220136471755</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>17.18384528706732</v>
+      </c>
+      <c r="C70" t="n">
+        <v>16.53331225786203</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.29920014019507</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.778849553425658</v>
+      </c>
+      <c r="G70" t="n">
+        <v>14.93615805318249</v>
+      </c>
+      <c r="H70" t="n">
+        <v>14.14998484865068</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18.15556096481395</v>
+      </c>
+      <c r="J70" t="n">
+        <v>19.99448611576302</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>count_medium_pressures_received_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>166.3283526731048</v>
+      </c>
+      <c r="C71" t="n">
+        <v>171.9315147276493</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-3.26</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.674833512348721</v>
+      </c>
+      <c r="F71" t="n">
+        <v>11.50827084306878</v>
+      </c>
+      <c r="G71" t="n">
+        <v>157.0899496019799</v>
+      </c>
+      <c r="H71" t="n">
+        <v>155.0332007223277</v>
+      </c>
+      <c r="I71" t="n">
+        <v>171.7363233100828</v>
+      </c>
+      <c r="J71" t="n">
+        <v>190.4630802391111</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>960.3496646707287</v>
+      </c>
+      <c r="C72" t="n">
+        <v>931.8988169408281</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E72" t="n">
+        <v>51.47458223882396</v>
+      </c>
+      <c r="F72" t="n">
+        <v>33.30104219580708</v>
+      </c>
+      <c r="G72" t="n">
+        <v>897.121717685707</v>
+      </c>
+      <c r="H72" t="n">
+        <v>868.9626278172753</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1017.488494800106</v>
+      </c>
+      <c r="J72" t="n">
+        <v>989.9924890372382</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>108.984029609111</v>
+      </c>
+      <c r="C73" t="n">
+        <v>105.8510698676282</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8.64482101520853</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10.01372533890034</v>
+      </c>
+      <c r="G73" t="n">
+        <v>95.97138977485849</v>
+      </c>
+      <c r="H73" t="n">
+        <v>89.60992353975905</v>
+      </c>
+      <c r="I73" t="n">
+        <v>117.58945253378</v>
+      </c>
+      <c r="J73" t="n">
+        <v>126.9717683208565</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>ball_retention_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>69.66935768888001</v>
+      </c>
+      <c r="C74" t="n">
+        <v>67.73392893121103</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.934519797650937</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.552367019934056</v>
+      </c>
+      <c r="G74" t="n">
+        <v>65.67357260336011</v>
+      </c>
+      <c r="H74" t="n">
+        <v>63.00980639560355</v>
+      </c>
+      <c r="I74" t="n">
+        <v>71.88005486171394</v>
+      </c>
+      <c r="J74" t="n">
+        <v>81.19524844424498</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>69.47776935274435</v>
+      </c>
+      <c r="C75" t="n">
+        <v>67.5963085067548</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.032250705847586</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4.321747003362872</v>
+      </c>
+      <c r="G75" t="n">
+        <v>65.56629687315132</v>
+      </c>
+      <c r="H75" t="n">
+        <v>60.95868848932685</v>
+      </c>
+      <c r="I75" t="n">
+        <v>72.30759175283009</v>
+      </c>
+      <c r="J75" t="n">
+        <v>79.05031600778267</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>81.95505528514039</v>
+      </c>
+      <c r="C76" t="n">
+        <v>79.74825189438425</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9.717764028819309</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6.831890706865283</v>
+      </c>
+      <c r="G76" t="n">
+        <v>68.86402315788136</v>
+      </c>
+      <c r="H76" t="n">
+        <v>67.07494165843585</v>
+      </c>
+      <c r="I76" t="n">
+        <v>92.29896160065991</v>
+      </c>
+      <c r="J76" t="n">
+        <v>90.42307594967787</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>221.8294909726575</v>
+      </c>
+      <c r="C77" t="n">
+        <v>216.6034800682718</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E77" t="n">
+        <v>37.96800788586147</v>
+      </c>
+      <c r="F77" t="n">
+        <v>28.63991808338326</v>
+      </c>
+      <c r="G77" t="n">
+        <v>179.5596943866176</v>
+      </c>
+      <c r="H77" t="n">
+        <v>179.3657001751036</v>
+      </c>
+      <c r="I77" t="n">
+        <v>282.9370296631323</v>
+      </c>
+      <c r="J77" t="n">
+        <v>276.248291498938</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>pass_completion_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>69.20628616464134</v>
+      </c>
+      <c r="C78" t="n">
+        <v>67.60655125416311</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.229406095569141</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4.661907290727581</v>
+      </c>
+      <c r="G78" t="n">
+        <v>63.3409090916464</v>
+      </c>
+      <c r="H78" t="n">
+        <v>61.53785168625087</v>
+      </c>
+      <c r="I78" t="n">
+        <v>72.28136389808543</v>
+      </c>
+      <c r="J78" t="n">
+        <v>80.44985770118041</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>ball_retention_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>67.65907943329671</v>
+      </c>
+      <c r="C79" t="n">
+        <v>66.11674861891917</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.950597986769082</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4.123782961749064</v>
+      </c>
+      <c r="G79" t="n">
+        <v>65.30251144221495</v>
+      </c>
+      <c r="H79" t="n">
+        <v>60.42032283361985</v>
+      </c>
+      <c r="I79" t="n">
+        <v>69.9864686633582</v>
+      </c>
+      <c r="J79" t="n">
+        <v>77.28438484741231</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3.589130118916932</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.512799806492452</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4514728515963732</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.3302341399653595</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.140697953161452</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.80746558044654</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.268021780432877</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.008119246520345</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>14.77686103876962</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15.08940423170673</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.508639679535979</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.129832313813659</v>
+      </c>
+      <c r="G81" t="n">
+        <v>11.45568910447905</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10.90986822699461</v>
+      </c>
+      <c r="I81" t="n">
+        <v>18.24278964196466</v>
+      </c>
+      <c r="J81" t="n">
+        <v>19.54818432252391</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>63.38021609580245</v>
+      </c>
+      <c r="C82" t="n">
+        <v>64.69812664645659</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="E82" t="n">
+        <v>18.3531809537299</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11.51759334412415</v>
+      </c>
+      <c r="G82" t="n">
+        <v>33.45026266607017</v>
+      </c>
+      <c r="H82" t="n">
+        <v>49.88448494719403</v>
+      </c>
+      <c r="I82" t="n">
+        <v>81.91690521392901</v>
+      </c>
+      <c r="J82" t="n">
+        <v>91.21033443437854</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>902.1499743705466</v>
+      </c>
+      <c r="C83" t="n">
+        <v>884.7745435218593</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E83" t="n">
+        <v>57.59625411442637</v>
+      </c>
+      <c r="F83" t="n">
+        <v>36.76068713527147</v>
+      </c>
+      <c r="G83" t="n">
+        <v>818.4914735988638</v>
+      </c>
+      <c r="H83" t="n">
+        <v>811.6888146100877</v>
+      </c>
+      <c r="I83" t="n">
+        <v>962.0547105418342</v>
+      </c>
+      <c r="J83" t="n">
+        <v>962.4847785931221</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>19.20340403107496</v>
+      </c>
+      <c r="C84" t="n">
+        <v>18.86671932001562</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.9211604810776979</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.088830641488571</v>
+      </c>
+      <c r="G84" t="n">
+        <v>17.99808077023203</v>
+      </c>
+      <c r="H84" t="n">
+        <v>16.78804206887002</v>
+      </c>
+      <c r="I84" t="n">
+        <v>20.03490384510583</v>
+      </c>
+      <c r="J84" t="n">
+        <v>20.39980137870329</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>137.2163110038495</v>
+      </c>
+      <c r="C85" t="n">
+        <v>134.8899042651666</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6.018941414346261</v>
+      </c>
+      <c r="F85" t="n">
+        <v>9.175643514226463</v>
+      </c>
+      <c r="G85" t="n">
+        <v>131.3722262861448</v>
+      </c>
+      <c r="H85" t="n">
+        <v>117.2420694982991</v>
+      </c>
+      <c r="I85" t="n">
+        <v>144.6349087444519</v>
+      </c>
+      <c r="J85" t="n">
+        <v>151.6711194163342</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>127.5591468715385</v>
+      </c>
+      <c r="C86" t="n">
+        <v>129.7417730908775</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6.969567388298999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11.03465224758604</v>
+      </c>
+      <c r="G86" t="n">
+        <v>118.7780523447473</v>
+      </c>
+      <c r="H86" t="n">
+        <v>113.2869553631057</v>
+      </c>
+      <c r="I86" t="n">
+        <v>135.591278515108</v>
+      </c>
+      <c r="J86" t="n">
+        <v>149.7450943205055</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>count_low_pressures_received_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>33.65075925996624</v>
+      </c>
+      <c r="C87" t="n">
+        <v>33.10685783860813</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.263598763327981</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.488724671267772</v>
+      </c>
+      <c r="G87" t="n">
+        <v>31.3740332203958</v>
+      </c>
+      <c r="H87" t="n">
+        <v>29.4578538296407</v>
+      </c>
+      <c r="I87" t="n">
+        <v>37.42872394280407</v>
+      </c>
+      <c r="J87" t="n">
+        <v>37.59176064337515</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>30.95619663904695</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30.46204822965429</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.420112737235186</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4.151282514427827</v>
+      </c>
+      <c r="G88" t="n">
+        <v>25.37870603214569</v>
+      </c>
+      <c r="H88" t="n">
+        <v>24.42909359528841</v>
+      </c>
+      <c r="I88" t="n">
+        <v>40.01553135935747</v>
+      </c>
+      <c r="J88" t="n">
+        <v>38.67671353448167</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>877.1216868279041</v>
+      </c>
+      <c r="C89" t="n">
+        <v>864.2265559467545</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E89" t="n">
+        <v>41.23450490045331</v>
+      </c>
+      <c r="F89" t="n">
+        <v>39.31762237652828</v>
+      </c>
+      <c r="G89" t="n">
+        <v>814.9224146528651</v>
+      </c>
+      <c r="H89" t="n">
+        <v>803.4776500601345</v>
+      </c>
+      <c r="I89" t="n">
+        <v>924.2543994578823</v>
+      </c>
+      <c r="J89" t="n">
+        <v>923.525239284646</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>count_high_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1214.801805801838</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1231.358993002275</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="E90" t="n">
+        <v>39.65068824444745</v>
+      </c>
+      <c r="F90" t="n">
+        <v>24.63066401262518</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1168.31078117918</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1188.184240374778</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1263.730823155247</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1266.09947684049</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>40.75911675715743</v>
+      </c>
+      <c r="C91" t="n">
+        <v>40.38931052684117</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9.810537454925266</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9.176649653491518</v>
+      </c>
+      <c r="G91" t="n">
+        <v>27.72755497509059</v>
+      </c>
+      <c r="H91" t="n">
+        <v>24.40273812300336</v>
+      </c>
+      <c r="I91" t="n">
+        <v>51.17196223440106</v>
+      </c>
+      <c r="J91" t="n">
+        <v>58.45617703707091</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>count_medium_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1180.048674209591</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1184.5196483201</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="E92" t="n">
+        <v>36.94937853292996</v>
+      </c>
+      <c r="F92" t="n">
+        <v>24.62553503632951</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1140.615761723579</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1129.142462852886</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1223.310390653121</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1223.916133512436</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
           <t>count_high_pressures_received_per_match</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B93" t="n">
         <v>110.8866630859001</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C93" t="n">
         <v>111.218504567982</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D93" t="n">
         <v>-0.3</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E93" t="n">
         <v>10.27658749351956</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F93" t="n">
         <v>7.462194691139966</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G93" t="n">
         <v>97.81811959896311</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H93" t="n">
         <v>95.49673473966499</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I93" t="n">
         <v>122.8252504052022</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J93" t="n">
         <v>121.380398610189</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>106.5798563348359</v>
+      </c>
+      <c r="C94" t="n">
+        <v>106.277811587891</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E94" t="n">
+        <v>18.5547728074037</v>
+      </c>
+      <c r="F94" t="n">
+        <v>14.36311214538091</v>
+      </c>
+      <c r="G94" t="n">
+        <v>83.67542652513214</v>
+      </c>
+      <c r="H94" t="n">
+        <v>82.11948019128722</v>
+      </c>
+      <c r="I94" t="n">
+        <v>134.4307047837108</v>
+      </c>
+      <c r="J94" t="n">
+        <v>136.9622066626026</v>
       </c>
     </row>
   </sheetData>
